--- a/biology/Histoire de la zoologie et de la botanique/Chronologie_linnéenne/Chronologie_linnéenne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Chronologie_linnéenne/Chronologie_linnéenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chronologie_linn%C3%A9enne</t>
+          <t>Chronologie_linnéenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette chronologie linnéenne a pour but de présenter schématiquement l'activité des sociétés linnéennes en rapport avec la vie et l'œuvre de Carl von Linné (1707-1778).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chronologie_linn%C3%A9enne</t>
+          <t>Chronologie_linnéenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Durant la vie de Linné</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1762 — Antoine Gouan (1733-1821) fait paraître le premier ouvrage français qui suit le système linnéen : Hortus regius Monspeliensis.
 1765 — Antoine Gouan (1733-1821) fait paraître la première flore régionale française suivant le système linnéen : Flora Monspeliaca.</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronologie_linn%C3%A9enne</t>
+          <t>Chronologie_linnéenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fin du XVIIIe siècle
-1788 — Création de la Société linnéenne de Londres et de la Société linnéenne de Paris.
+          <t>Fin du XVIIIe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1788 — Création de la Société linnéenne de Londres et de la Société linnéenne de Paris.
 1789 — Création de la Societas Linnaeana.
-1798 — Nicolas Marie Thérèse Jolyclerc (1746-1817) traduit pour la première fois en français le Système sexuel des végétaux et la Cryptogamie complète de Linné.Adaptation en français de Classes plantarum par Marie Jacques Philippe Mouton-Fontenille de La Clotte (1769-1837).
-Première moitié du XIXe siècle
-1805 — Première traduction en français du Système des plantes de Linné par Marie Jacques Philippe Mouton-Fontenille de La Clotte (1769-1837).
+1798 — Nicolas Marie Thérèse Jolyclerc (1746-1817) traduit pour la première fois en français le Système sexuel des végétaux et la Cryptogamie complète de Linné.Adaptation en français de Classes plantarum par Marie Jacques Philippe Mouton-Fontenille de La Clotte (1769-1837).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chronologie_linnéenne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_linn%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Après la mort de Linné</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Première moitié du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1805 — Première traduction en français du Système des plantes de Linné par Marie Jacques Philippe Mouton-Fontenille de La Clotte (1769-1837).
 1807 — La Societas pro Historia Naturali, créée en 1800, devient la Linnéska Institutet.
 1817 — Création de la Linnaean Society of New England.
 1818 — Création de la Société linnéenne de Bordeaux.
@@ -561,17 +614,85 @@
 1844 — Création de la Linnaea Association, au sein du Pennsylvania College.
 1845 — Un sulfure de cobalt est nommé par Wilhelm Karl Ritter von Haidinger (1795-1871) Linnaéite en l'honneur de Linné.
 1846 — Création de la Linnaea Entomological au sein de la Stettin Entomologischer Verein.
-1847 — Création de la Société royale linnéenne.
-Deuxième moitié du XIXe siècle
-1852 — Création de la Société du département de Maine-et-Loire.
+1847 — Création de la Société royale linnéenne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chronologie_linnéenne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_linn%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Après la mort de Linné</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Deuxième moitié du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1852 — Création de la Société du département de Maine-et-Loire.
 1861 — Création de Linnéa. Tidning för barn.
 1874 — Création de la Société linnéenne de la Charente inférieure et de la Société linnéenne de Nouvelle-Galles du Sud.
 1875 — Création de Linnaea, Svenskt poetiskt album.
 1878 — Création de la Société linnéenne de New York.
 1884 — Création du Linnaean Bulletin.
-1885 — Linnéa, Minnesblad.
-XXe siècle
-1909 — Création de la Société linnéenne de Provence,
+1885 — Linnéa, Minnesblad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chronologie_linnéenne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_linn%C3%A9enne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Après la mort de Linné</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1909 — Création de la Société linnéenne de Provence,
 1917 — Création de la Société linnéenne suédoise,
 1929 — Création de la Société linnéenne du Québec.
  Portail de l’histoire de la zoologie et de la botanique                     </t>
